--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.68504933333333</v>
+        <v>2.811979666666667</v>
       </c>
       <c r="H2">
-        <v>179.055148</v>
+        <v>8.435939000000001</v>
       </c>
       <c r="I2">
-        <v>0.207862575863973</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="J2">
-        <v>0.2078625758639731</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>124.4624270757866</v>
+        <v>1.153641840720111</v>
       </c>
       <c r="R2">
-        <v>1120.16184368208</v>
+        <v>10.382776566481</v>
       </c>
       <c r="S2">
-        <v>0.003645436020103641</v>
+        <v>4.273729394302889E-05</v>
       </c>
       <c r="T2">
-        <v>0.003645436020103641</v>
+        <v>4.273729394302889E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.68504933333333</v>
+        <v>2.811979666666667</v>
       </c>
       <c r="H3">
-        <v>179.055148</v>
+        <v>8.435939000000001</v>
       </c>
       <c r="I3">
-        <v>0.207862575863973</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="J3">
-        <v>0.2078625758639731</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>6081.797482481535</v>
+        <v>286.5355905464824</v>
       </c>
       <c r="R3">
-        <v>54736.17734233382</v>
+        <v>2578.820314918341</v>
       </c>
       <c r="S3">
-        <v>0.1781325025592966</v>
+        <v>0.01061486791314755</v>
       </c>
       <c r="T3">
-        <v>0.1781325025592966</v>
+        <v>0.01061486791314755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.68504933333333</v>
+        <v>2.811979666666667</v>
       </c>
       <c r="H4">
-        <v>179.055148</v>
+        <v>8.435939000000001</v>
       </c>
       <c r="I4">
-        <v>0.207862575863973</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="J4">
-        <v>0.2078625758639731</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>890.5813318147855</v>
+        <v>41.95852436327768</v>
       </c>
       <c r="R4">
-        <v>8015.231986333069</v>
+        <v>377.6267192694991</v>
       </c>
       <c r="S4">
-        <v>0.02608463728457283</v>
+        <v>0.001554376519500899</v>
       </c>
       <c r="T4">
-        <v>0.02608463728457283</v>
+        <v>0.001554376519500899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>559.240372</v>
       </c>
       <c r="I5">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678946</v>
       </c>
       <c r="J5">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678947</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>388.7317108463466</v>
+        <v>76.47792286775423</v>
       </c>
       <c r="R5">
-        <v>3498.58539761712</v>
+        <v>688.301305809788</v>
       </c>
       <c r="S5">
-        <v>0.01138573796261339</v>
+        <v>0.002833166546483186</v>
       </c>
       <c r="T5">
-        <v>0.01138573796261339</v>
+        <v>0.002833166546483186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>559.240372</v>
       </c>
       <c r="I6">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678946</v>
       </c>
       <c r="J6">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678947</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
         <v>18995.19072488012</v>
@@ -818,10 +818,10 @@
         <v>170956.7165239211</v>
       </c>
       <c r="S6">
-        <v>0.5563586867469008</v>
+        <v>0.7036872457801674</v>
       </c>
       <c r="T6">
-        <v>0.5563586867469007</v>
+        <v>0.7036872457801674</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>559.240372</v>
       </c>
       <c r="I7">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678946</v>
       </c>
       <c r="J7">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678947</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
-        <v>2781.539882340362</v>
+        <v>2781.539882340361</v>
       </c>
       <c r="R7">
-        <v>25033.85894106326</v>
+        <v>25033.85894106325</v>
       </c>
       <c r="S7">
-        <v>0.08146977298027522</v>
+        <v>0.1030436686412441</v>
       </c>
       <c r="T7">
-        <v>0.08146977298027519</v>
+        <v>0.1030436686412441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>123.115666</v>
       </c>
       <c r="I8">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="J8">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N8">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O8">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P8">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q8">
-        <v>85.57852020770666</v>
+        <v>16.83646403153489</v>
       </c>
       <c r="R8">
-        <v>770.2066818693601</v>
+        <v>151.528176283814</v>
       </c>
       <c r="S8">
-        <v>0.002506547778651129</v>
+        <v>0.0006237160328961326</v>
       </c>
       <c r="T8">
-        <v>0.002506547778651129</v>
+        <v>0.0006237160328961325</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>123.115666</v>
       </c>
       <c r="I9">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="J9">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P9">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q9">
         <v>4181.753811026073</v>
@@ -1004,10 +1004,10 @@
         <v>37635.78429923466</v>
       </c>
       <c r="S9">
-        <v>0.1224812686694409</v>
+        <v>0.1549153606527016</v>
       </c>
       <c r="T9">
-        <v>0.1224812686694409</v>
+        <v>0.1549153606527016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>123.115666</v>
       </c>
       <c r="I10">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="J10">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q10">
-        <v>612.3505245073675</v>
+        <v>612.3505245073674</v>
       </c>
       <c r="R10">
-        <v>5511.154720566307</v>
+        <v>5511.154720566306</v>
       </c>
       <c r="S10">
-        <v>0.01793540999814546</v>
+        <v>0.02268486061991619</v>
       </c>
       <c r="T10">
-        <v>0.01793540999814546</v>
+        <v>0.02268486061991619</v>
       </c>
     </row>
   </sheetData>
